--- a/Divisions/N1.xlsx
+++ b/Divisions/N1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7176" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7270" uniqueCount="305">
   <si>
     <t>Team</t>
   </si>
@@ -704,6 +705,234 @@
   </si>
   <si>
     <t>2.871</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Ajax,W W W D W W</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,W W W W L W</t>
+  </si>
+  <si>
+    <t>Den Haag,L L L D L W</t>
+  </si>
+  <si>
+    <t>FC Emmen,D D W W W L</t>
+  </si>
+  <si>
+    <t>Feyenoord,D D W W D L</t>
+  </si>
+  <si>
+    <t>For Sittard,W L L L W W</t>
+  </si>
+  <si>
+    <t>Groningen,D L W L L L</t>
+  </si>
+  <si>
+    <t>Heerenveen,L D L W L D</t>
+  </si>
+  <si>
+    <t>Heracles,W D L W L W</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,D L W W W D</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,W D W L W W</t>
+  </si>
+  <si>
+    <t>Twente,L D L L L L</t>
+  </si>
+  <si>
+    <t>Utrecht,W W L D W W</t>
+  </si>
+  <si>
+    <t>Vitesse,W D W D D W</t>
+  </si>
+  <si>
+    <t>VVV Venlo,L L L L L L</t>
+  </si>
+  <si>
+    <t>Waalwijk,L W L L L L</t>
+  </si>
+  <si>
+    <t>Willem II,W D L L W L</t>
+  </si>
+  <si>
+    <t>Zwolle,L W L W W L</t>
+  </si>
+  <si>
+    <t>Ajax,5 2 1 1 2 4</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,4 2 1 2 0 3</t>
+  </si>
+  <si>
+    <t>Den Haag,1 0 1 0 0 3</t>
+  </si>
+  <si>
+    <t>FC Emmen,1 1 3 3 3 0</t>
+  </si>
+  <si>
+    <t>Feyenoord,1 1 2 2 0 2</t>
+  </si>
+  <si>
+    <t>For Sittard,3 0 0 1 3 3</t>
+  </si>
+  <si>
+    <t>Groningen,1 1 1 0 0 1</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 0 1 2 0 2</t>
+  </si>
+  <si>
+    <t>Heracles,2 1 0 4 1 4</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,1 0 3 2 1 2</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,2 1 3 0 2 2</t>
+  </si>
+  <si>
+    <t>Twente,1 0 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Utrecht,1 4 1 1 2 3</t>
+  </si>
+  <si>
+    <t>Vitesse,3 0 2 0 0 2</t>
+  </si>
+  <si>
+    <t>VVV Venlo,1 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Waalwijk,0 3 1 0 0 1</t>
+  </si>
+  <si>
+    <t>Willem II,3 0 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Zwolle,0 2 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Ajax,0 1 0 1 0 0</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,1 0 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Den Haag,2 5 4 0 3 2</t>
+  </si>
+  <si>
+    <t>FC Emmen,1 1 1 1 1 4</t>
+  </si>
+  <si>
+    <t>Feyenoord,1 1 0 1 0 3</t>
+  </si>
+  <si>
+    <t>For Sittard,1 1 2 3 0 0</t>
+  </si>
+  <si>
+    <t>Groningen,1 3 0 2 1 2</t>
+  </si>
+  <si>
+    <t>Heerenveen,3 0 2 0 2 2</t>
+  </si>
+  <si>
+    <t>Heracles,1 1 3 0 3 0</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,1 2 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,0 1 2 2 0 1</t>
+  </si>
+  <si>
+    <t>Twente,4 0 2 1 2 3</t>
+  </si>
+  <si>
+    <t>Utrecht,0 1 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Vitesse,1 0 1 0 0 1</t>
+  </si>
+  <si>
+    <t>VVV Venlo,3 2 1 2 2 4</t>
+  </si>
+  <si>
+    <t>Waalwijk,2 1 3 1 1 3</t>
+  </si>
+  <si>
+    <t>Willem II,1 0 1 4 0 3</t>
+  </si>
+  <si>
+    <t>Zwolle,2 1 3 0 0 2</t>
+  </si>
+  <si>
+    <t>Ajax,5 3 1 2 2 4</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,5 2 1 2 2 4</t>
+  </si>
+  <si>
+    <t>Den Haag,3 5 5 0 3 5</t>
+  </si>
+  <si>
+    <t>FC Emmen,2 2 4 4 4 4</t>
+  </si>
+  <si>
+    <t>Feyenoord,2 2 2 3 0 5</t>
+  </si>
+  <si>
+    <t>For Sittard,4 1 2 4 3 3</t>
+  </si>
+  <si>
+    <t>Groningen,2 4 1 2 1 3</t>
+  </si>
+  <si>
+    <t>Heerenveen,4 0 3 2 2 4</t>
+  </si>
+  <si>
+    <t>Heracles,3 2 3 4 4 4</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 2 3 2 1 4</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,2 2 5 2 2 3</t>
+  </si>
+  <si>
+    <t>Twente,5 0 3 1 3 3</t>
+  </si>
+  <si>
+    <t>Utrecht,1 5 3 2 3 5</t>
+  </si>
+  <si>
+    <t>Vitesse,4 0 3 0 0 3</t>
+  </si>
+  <si>
+    <t>VVV Venlo,4 3 1 2 2 4</t>
+  </si>
+  <si>
+    <t>Waalwijk,2 4 4 1 1 4</t>
+  </si>
+  <si>
+    <t>Willem II,4 0 1 4 1 5</t>
+  </si>
+  <si>
+    <t>Zwolle,2 3 5 1 2 3</t>
   </si>
 </sst>
 </file>
@@ -22584,4 +22813,338 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/N1.xlsx
+++ b/Divisions/N1.xlsx
@@ -1170,166 +1170,166 @@
     <t>Zwolle,W W L L L W</t>
   </si>
   <si>
-    <t>Ajax,1 2 4 3 3 3</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,2 0 3 1 0 5</t>
-  </si>
-  <si>
-    <t>Den Haag,0 0 3 1 1 2</t>
-  </si>
-  <si>
-    <t>FC Emmen,3 3 0 0 3 4</t>
-  </si>
-  <si>
-    <t>Feyenoord,2 0 2 0 1 3</t>
-  </si>
-  <si>
-    <t>For Sittard,1 3 3 0 3 1</t>
-  </si>
-  <si>
-    <t>Groningen,0 0 1 4 0 0</t>
-  </si>
-  <si>
-    <t>Heerenveen,2 0 2 0 1 1</t>
-  </si>
-  <si>
-    <t>Heracles,4 1 4 1 1 0</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 1 2 2 4 1</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,0 2 2 3 0 2</t>
-  </si>
-  <si>
-    <t>Twente,0 1 0 1 1 3</t>
-  </si>
-  <si>
-    <t>Utrecht,1 2 3 0 0 1</t>
-  </si>
-  <si>
-    <t>Vitesse,0 0 2 0 3 1</t>
-  </si>
-  <si>
-    <t>VVV Venlo,0 0 0 3 1 0</t>
-  </si>
-  <si>
-    <t>Waalwijk,0 0 1 3 2 0</t>
-  </si>
-  <si>
-    <t>Willem II,0 1 2 0 4 2</t>
-  </si>
-  <si>
-    <t>Zwolle,1 2 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Ajax,1 0 0 0 1 1</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,0 2 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Den Haag,0 3 2 0 4 3</t>
-  </si>
-  <si>
-    <t>FC Emmen,1 1 4 4 1 0</t>
-  </si>
-  <si>
-    <t>Feyenoord,1 0 3 3 1 0</t>
-  </si>
-  <si>
-    <t>For Sittard,3 0 0 1 3 2</t>
-  </si>
-  <si>
-    <t>Groningen,2 1 2 0 0 1</t>
-  </si>
-  <si>
-    <t>Heerenveen,0 2 2 0 3 2</t>
-  </si>
-  <si>
-    <t>Heracles,0 3 0 1 1 5</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,0 0 2 0 2 1</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,2 0 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Twente,1 2 3 1 2 2</t>
-  </si>
-  <si>
-    <t>Utrecht,1 1 2 0 0 1</t>
-  </si>
-  <si>
-    <t>Vitesse,0 0 1 3 3 3</t>
-  </si>
-  <si>
-    <t>VVV Venlo,2 2 4 3 3 4</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 1 3 3 1 3</t>
-  </si>
-  <si>
-    <t>Willem II,4 0 3 2 1 1</t>
-  </si>
-  <si>
-    <t>Zwolle,0 0 2 1 4 0</t>
-  </si>
-  <si>
-    <t>Ajax,2 2 4 3 4 4</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,2 2 4 1 0 5</t>
-  </si>
-  <si>
-    <t>Den Haag,0 3 5 1 5 5</t>
-  </si>
-  <si>
-    <t>FC Emmen,4 4 4 4 4 4</t>
-  </si>
-  <si>
-    <t>Feyenoord,3 0 5 3 2 3</t>
-  </si>
-  <si>
-    <t>For Sittard,4 3 3 1 6 3</t>
-  </si>
-  <si>
-    <t>Groningen,2 1 3 4 0 1</t>
-  </si>
-  <si>
-    <t>Heerenveen,2 2 4 0 4 3</t>
-  </si>
-  <si>
-    <t>Heracles,4 4 4 2 2 5</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 1 4 2 6 2</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,2 2 3 3 0 3</t>
-  </si>
-  <si>
-    <t>Twente,1 3 3 2 3 5</t>
-  </si>
-  <si>
-    <t>Utrecht,2 3 5 0 0 2</t>
-  </si>
-  <si>
-    <t>Vitesse,0 0 3 3 6 4</t>
-  </si>
-  <si>
-    <t>VVV Venlo,2 2 4 6 4 4</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 1 4 6 3 3</t>
-  </si>
-  <si>
-    <t>Willem II,4 1 5 2 5 3</t>
-  </si>
-  <si>
-    <t>Zwolle,1 2 3 1 6 1</t>
+    <t>Ajax,1 2 4 3 3 3,(16)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,2 0 3 1 0 5,(11)</t>
+  </si>
+  <si>
+    <t>Den Haag,0 0 3 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>FC Emmen,3 3 0 0 3 4,(13)</t>
+  </si>
+  <si>
+    <t>Feyenoord,2 0 2 0 1 3,(8)</t>
+  </si>
+  <si>
+    <t>For Sittard,1 3 3 0 3 1,(11)</t>
+  </si>
+  <si>
+    <t>Groningen,0 0 1 4 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Heerenveen,2 0 2 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Heracles,4 1 4 1 1 0,(11)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 1 2 2 4 1,(12)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,0 2 2 3 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Twente,0 1 0 1 1 3,(6)</t>
+  </si>
+  <si>
+    <t>Utrecht,1 2 3 0 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Vitesse,0 0 2 0 3 1,(6)</t>
+  </si>
+  <si>
+    <t>VVV Venlo,0 0 0 3 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Waalwijk,0 0 1 3 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Willem II,0 1 2 0 4 2,(9)</t>
+  </si>
+  <si>
+    <t>Zwolle,1 2 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Ajax,1 0 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,0 2 1 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Den Haag,0 3 2 0 4 3,(12)</t>
+  </si>
+  <si>
+    <t>FC Emmen,1 1 4 4 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Feyenoord,1 0 3 3 1 0,(8)</t>
+  </si>
+  <si>
+    <t>For Sittard,3 0 0 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Groningen,2 1 2 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Heerenveen,0 2 2 0 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Heracles,0 3 0 1 1 5,(10)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,0 0 2 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,2 0 1 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Twente,1 2 3 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Utrecht,1 1 2 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Vitesse,0 0 1 3 3 3,(10)</t>
+  </si>
+  <si>
+    <t>VVV Venlo,2 2 4 3 3 4,(18)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 1 3 3 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Willem II,4 0 3 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Zwolle,0 0 2 1 4 0,(7)</t>
+  </si>
+  <si>
+    <t>Ajax,2 2 4 3 4 4,(19)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,2 2 4 1 0 5,(14)</t>
+  </si>
+  <si>
+    <t>Den Haag,0 3 5 1 5 5,(19)</t>
+  </si>
+  <si>
+    <t>FC Emmen,4 4 4 4 4 4,(24)</t>
+  </si>
+  <si>
+    <t>Feyenoord,3 0 5 3 2 3,(16)</t>
+  </si>
+  <si>
+    <t>For Sittard,4 3 3 1 6 3,(20)</t>
+  </si>
+  <si>
+    <t>Groningen,2 1 3 4 0 1,(11)</t>
+  </si>
+  <si>
+    <t>Heerenveen,2 2 4 0 4 3,(15)</t>
+  </si>
+  <si>
+    <t>Heracles,4 4 4 2 2 5,(21)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 1 4 2 6 2,(17)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,2 2 3 3 0 3,(13)</t>
+  </si>
+  <si>
+    <t>Twente,1 3 3 2 3 5,(17)</t>
+  </si>
+  <si>
+    <t>Utrecht,2 3 5 0 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Vitesse,0 0 3 3 6 4,(16)</t>
+  </si>
+  <si>
+    <t>VVV Venlo,2 2 4 6 4 4,(22)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 1 4 6 3 3,(18)</t>
+  </si>
+  <si>
+    <t>Willem II,4 1 5 2 5 3,(20)</t>
+  </si>
+  <si>
+    <t>Zwolle,1 2 3 1 6 1,(14)</t>
   </si>
   <si>
     <t>Ajax,Utrecht AZ Alkmaar FC Emmen Feyenoord VVV Venlo Vitesse</t>

--- a/Divisions/N1.xlsx
+++ b/Divisions/N1.xlsx
@@ -816,382 +816,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Ajax,W W W W L W</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,L L L W W W</t>
-  </si>
-  <si>
-    <t>Cambuur,W L W W L L</t>
-  </si>
-  <si>
-    <t>Feyenoord,L W W W L D</t>
-  </si>
-  <si>
-    <t>For Sittard,L L L D L W</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,L W L L D W</t>
-  </si>
-  <si>
-    <t>Groningen,D L L L D D</t>
-  </si>
-  <si>
-    <t>Heerenveen,D W L L W L</t>
-  </si>
-  <si>
-    <t>Heracles,L W L W W L</t>
-  </si>
-  <si>
-    <t>Nijmegen,D D L L W L</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,W L W L W W</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,W D D L L D</t>
-  </si>
-  <si>
-    <t>Twente,W W W W D D</t>
-  </si>
-  <si>
-    <t>Utrecht,L D W W W L</t>
-  </si>
-  <si>
-    <t>Vitesse,W L W D W W</t>
-  </si>
-  <si>
-    <t>Waalwijk,L D L L D D</t>
-  </si>
-  <si>
-    <t>Willem II,D W W W L D</t>
-  </si>
-  <si>
-    <t>Zwolle,L L D L L L</t>
-  </si>
-  <si>
-    <t>Ajax,2 9 5 3 0 2,(21)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,0 2 1 5 3 5,(16)</t>
-  </si>
-  <si>
-    <t>Cambuur,5 0 2 4 1 0,(12)</t>
-  </si>
-  <si>
-    <t>Feyenoord,1 4 3 5 1 2,(16)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 0 0 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,2 1 1 0 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Groningen,1 1 0 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 1 1 2 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Heracles,0 3 1 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Nijmegen,0 1 0 3 3 0,(7)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,3 0 2 1 2 3,(11)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,3 1 1 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Twente,1 4 3 3 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Utrecht,0 2 3 5 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Vitesse,2 1 1 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 2 1 0 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Willem II,0 2 2 2 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Zwolle,0 0 1 1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Ajax,0 0 0 0 1 0,(1)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,3 3 3 0 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Cambuur,2 9 1 0 3 1,(16)</t>
-  </si>
-  <si>
-    <t>Feyenoord,3 0 1 3 2 2,(11)</t>
-  </si>
-  <si>
-    <t>For Sittard,3 1 5 1 3 0,(13)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,5 0 2 5 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Groningen,1 2 1 3 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 0 3 3 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Heracles,1 2 2 0 2 4,(11)</t>
-  </si>
-  <si>
-    <t>Nijmegen,0 1 3 5 1 1,(11)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,0 4 1 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,1 1 1 4 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Twente,0 1 1 2 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Utrecht,1 2 0 1 0 5,(9)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 4 0 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Waalwijk,2 2 2 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Willem II,0 1 1 1 3 1,(7)</t>
-  </si>
-  <si>
-    <t>Zwolle,2 1 1 5 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Ajax,2 9 5 3 1 2,(22)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,3 5 4 5 4 6,(27)</t>
-  </si>
-  <si>
-    <t>Cambuur,7 9 3 4 4 1,(28)</t>
-  </si>
-  <si>
-    <t>Feyenoord,4 4 4 8 3 4,(27)</t>
-  </si>
-  <si>
-    <t>For Sittard,4 1 5 2 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,7 1 3 5 2 6,(24)</t>
-  </si>
-  <si>
-    <t>Groningen,2 3 1 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Heerenveen,2 1 4 5 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Heracles,1 5 3 1 5 6,(21)</t>
-  </si>
-  <si>
-    <t>Nijmegen,0 2 3 8 4 1,(18)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,3 4 3 3 3 4,(20)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,4 2 2 4 3 2,(17)</t>
-  </si>
-  <si>
-    <t>Twente,1 5 4 5 2 2,(19)</t>
-  </si>
-  <si>
-    <t>Utrecht,1 4 3 6 1 6,(21)</t>
-  </si>
-  <si>
-    <t>Vitesse,3 5 1 2 3 1,(15)</t>
-  </si>
-  <si>
-    <t>Waalwijk,3 4 3 1 2 4,(17)</t>
-  </si>
-  <si>
-    <t>Willem II,0 3 3 3 5 2,(16)</t>
-  </si>
-  <si>
-    <t>Zwolle,2 1 2 6 1 4,(16)</t>
-  </si>
-  <si>
-    <t>Ajax,0-2 9-0 0-5 3-0 0-1 0-2</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,0-3 3-2 3-1 5-0 1-3 5-1</t>
-  </si>
-  <si>
-    <t>Cambuur,5-2 9-0 2-1 0-4 1-3 1-0</t>
-  </si>
-  <si>
-    <t>Feyenoord,3-1 0-4 3-1 5-3 2-1 2-2</t>
-  </si>
-  <si>
-    <t>For Sittard,3-1 1-0 0-5 1-1 1-3 1-0</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,5-2 1-0 1-2 5-0 1-1 4-2</t>
-  </si>
-  <si>
-    <t>Groningen,1-1 2-1 0-1 3-0 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Heerenveen,1-1 1-0 3-1 2-3 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Heracles,0-1 3-2 2-1 1-0 3-2 4-2</t>
-  </si>
-  <si>
-    <t>Nijmegen,0-0 1-1 0-3 5-3 1-3 0-1</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,0-3 0-4 1-2 2-1 2-1 3-1</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,3-1 1-1 1-1 0-4 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Twente,1-0 1-4 3-1 2-3 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Utrecht,1-0 2-2 0-3 5-1 0-1 5-1</t>
-  </si>
-  <si>
-    <t>Vitesse,1-2 1-4 0-1 1-1 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Waalwijk,1-2 2-2 1-2 1-0 1-1 2-2</t>
-  </si>
-  <si>
-    <t>Willem II,0-0 2-1 1-2 2-1 3-2 1-1</t>
-  </si>
-  <si>
-    <t>Zwolle,0-2 1-0 1-1 5-1 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Ajax,2 9 5 3 -1 2,(20)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,-3 -1 -2 5 2 4,(5)</t>
-  </si>
-  <si>
-    <t>Cambuur,3 -9 1 4 -2 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Feyenoord,-2 4 2 2 -1 0,(5)</t>
-  </si>
-  <si>
-    <t>For Sittard,-2 -1 -5 0 -2 1,(-9)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,-3 1 -1 -5 0 2,(-6)</t>
-  </si>
-  <si>
-    <t>Groningen,0 -1 -1 -3 0 0,(-5)</t>
-  </si>
-  <si>
-    <t>Heerenveen,0 1 -2 -1 1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Heracles,-1 1 -1 1 1 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Nijmegen,0 0 -3 -2 2 -1,(-4)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,3 -4 1 -1 1 2,(2)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,2 0 0 -4 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Twente,1 3 2 1 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Utrecht,-1 0 3 4 1 -4,(3)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 -3 1 0 1 1,(1)</t>
-  </si>
-  <si>
-    <t>Waalwijk,-1 0 -1 -1 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Willem II,0 1 1 1 -1 0,(2)</t>
-  </si>
-  <si>
-    <t>Zwolle,-2 -1 0 -4 -1 -2,(-10)</t>
-  </si>
-  <si>
-    <t>Ajax,Zwolle(18) Cambuur(10) For Sittard(14) Groningen(15) Utrecht(3) Heerenveen(8)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,PSV Eindhoven(2) Heracles(13) Twente(7) Go Ahead Eagles(12) Cambuur(10) Utrecht(3)</t>
-  </si>
-  <si>
-    <t>Cambuur,Go Ahead Eagles(12) Ajax(1) Heracles(13) Sparta Rotterdam(16) AZ Alkmaar(9) For Sittard(14)</t>
-  </si>
-  <si>
-    <t>Feyenoord,Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Nijmegen(11) Vitesse(6) Waalwijk(17)</t>
-  </si>
-  <si>
-    <t>For Sittard,Sparta Rotterdam(16) Heerenveen(8) Ajax(1) Vitesse(6) Nijmegen(11) Cambuur(10)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,Cambuur(10) Zwolle(18) PSV Eindhoven(2) AZ Alkmaar(9) Waalwijk(17) Heracles(13)</t>
-  </si>
-  <si>
-    <t>Groningen,Heerenveen(8) Willem II(4) Vitesse(6) Ajax(1) Twente(7) Sparta Rotterdam(16)</t>
-  </si>
-  <si>
-    <t>Heerenveen,Groningen(15) For Sittard(14) Feyenoord(5) Twente(7) Zwolle(18) Ajax(1)</t>
-  </si>
-  <si>
-    <t>Heracles,Nijmegen(11) AZ Alkmaar(9) Cambuur(10) Waalwijk(17) Willem II(4) Go Ahead Eagles(12)</t>
-  </si>
-  <si>
-    <t>Nijmegen,Willem II(4) Sparta Rotterdam(16) Utrecht(3) Feyenoord(5) For Sittard(14) Vitesse(6)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,AZ Alkmaar(9) Feyenoord(5) Go Ahead Eagles(12) Willem II(4) Sparta Rotterdam(16) Zwolle(18)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,For Sittard(14) Nijmegen(11) Zwolle(18) Cambuur(10) PSV Eindhoven(2) Groningen(15)</t>
-  </si>
-  <si>
-    <t>Twente,Utrecht(3) Vitesse(6) AZ Alkmaar(9) Heerenveen(8) Groningen(15) Willem II(4)</t>
-  </si>
-  <si>
-    <t>Utrecht,Twente(7) Waalwijk(17) Nijmegen(11) Zwolle(18) Ajax(1) AZ Alkmaar(9)</t>
-  </si>
-  <si>
-    <t>Vitesse,Waalwijk(17) Twente(7) Groningen(15) For Sittard(14) Feyenoord(5) Nijmegen(11)</t>
-  </si>
-  <si>
-    <t>Waalwijk,Vitesse(6) Utrecht(3) Willem II(4) Heracles(13) Go Ahead Eagles(12) Feyenoord(5)</t>
-  </si>
-  <si>
-    <t>Willem II,Nijmegen(11) Groningen(15) Waalwijk(17) PSV Eindhoven(2) Heracles(13) Twente(7)</t>
-  </si>
-  <si>
-    <t>Zwolle,Ajax(1) Go Ahead Eagles(12) Sparta Rotterdam(16) Utrecht(3) Heerenveen(8) PSV Eindhoven(2)</t>
+    <t>Ajax,W D W W W W W L W</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,L W L L L W W W</t>
+  </si>
+  <si>
+    <t>Cambuur,L L W W L W W L L</t>
+  </si>
+  <si>
+    <t>Feyenoord,W W L W W W L D</t>
+  </si>
+  <si>
+    <t>For Sittard,W D L L L D L W</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,L L W L W L L D W</t>
+  </si>
+  <si>
+    <t>Groningen,W D L D L L L D D</t>
+  </si>
+  <si>
+    <t>Heerenveen,W W L D W L L W L</t>
+  </si>
+  <si>
+    <t>Heracles,L D L W L W W L</t>
+  </si>
+  <si>
+    <t>Nijmegen,L W W D D L L W L</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,W W W W L W L W W</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,L D L W D D L L D</t>
+  </si>
+  <si>
+    <t>Twente,L D L W W W W D D</t>
+  </si>
+  <si>
+    <t>Utrecht,W D W L D W W W L</t>
+  </si>
+  <si>
+    <t>Vitesse,W L L W L W D W W</t>
+  </si>
+  <si>
+    <t>Waalwijk,W L D L D L L D D</t>
+  </si>
+  <si>
+    <t>Willem II,L W W D W W W L D</t>
+  </si>
+  <si>
+    <t>Zwolle,L L L L L D L L L</t>
+  </si>
+  <si>
+    <t>Ajax,5 1 5 2 9 5 3 0 2,(32)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,0 3 0 2 1 5 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Cambuur,1 1 2 5 0 2 4 1 0,(16)</t>
+  </si>
+  <si>
+    <t>Feyenoord,4 2 1 4 3 5 1 2,(22)</t>
+  </si>
+  <si>
+    <t>For Sittard,2 2 1 0 0 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,0 0 2 2 1 1 0 1 4,(11)</t>
+  </si>
+  <si>
+    <t>Groningen,2 0 2 1 1 0 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 3 1 1 1 1 2 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Heracles,0 1 0 3 1 1 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Nijmegen,0 2 1 0 1 0 3 3 0,(10)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 4 5 3 0 2 1 2 3,(22)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,0 1 0 3 1 1 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Twente,1 1 0 1 4 3 3 1 1,(15)</t>
+  </si>
+  <si>
+    <t>Utrecht,4 0 3 0 2 3 5 1 1,(19)</t>
+  </si>
+  <si>
+    <t>Vitesse,1 0 0 2 1 1 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 2 2 1 2 1 0 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Willem II,0 3 1 0 2 2 2 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Zwolle,0 0 0 0 0 1 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Ajax,0 1 0 0 0 0 0 1 0,(2)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,1 1 3 3 3 0 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Cambuur,2 4 0 2 9 1 0 3 1,(22)</t>
+  </si>
+  <si>
+    <t>Feyenoord,0 0 3 0 1 3 2 2,(11)</t>
+  </si>
+  <si>
+    <t>For Sittard,1 2 3 1 5 1 3 0,(16)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,1 2 0 5 0 2 5 1 2,(18)</t>
+  </si>
+  <si>
+    <t>Groningen,1 0 5 1 2 1 3 1 1,(15)</t>
+  </si>
+  <si>
+    <t>Heerenveen,0 2 3 1 0 3 3 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Heracles,2 1 1 2 2 0 2 4,(14)</t>
+  </si>
+  <si>
+    <t>Nijmegen,5 0 0 0 1 3 5 1 1,(16)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,0 1 2 0 4 1 2 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,4 1 2 1 1 1 4 2 1,(17)</t>
+  </si>
+  <si>
+    <t>Twente,2 1 2 0 1 1 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Utrecht,0 0 1 1 2 0 1 0 5,(10)</t>
+  </si>
+  <si>
+    <t>Vitesse,0 3 5 1 4 0 1 1 0,(15)</t>
+  </si>
+  <si>
+    <t>Waalwijk,0 3 2 2 2 2 1 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Willem II,4 0 0 0 1 1 1 3 1,(11)</t>
+  </si>
+  <si>
+    <t>Zwolle,1 2 1 2 1 1 5 1 3,(17)</t>
+  </si>
+  <si>
+    <t>Ajax,5 2 5 2 9 5 3 1 2,(34)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,1 4 3 5 4 5 4 6,(32)</t>
+  </si>
+  <si>
+    <t>Cambuur,3 5 2 7 9 3 4 4 1,(38)</t>
+  </si>
+  <si>
+    <t>Feyenoord,4 2 4 4 4 8 3 4,(33)</t>
+  </si>
+  <si>
+    <t>For Sittard,3 4 4 1 5 2 4 1,(24)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,1 2 2 7 1 3 5 2 6,(29)</t>
+  </si>
+  <si>
+    <t>Groningen,3 0 7 2 3 1 3 2 2,(23)</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 5 4 2 1 4 5 1 2,(25)</t>
+  </si>
+  <si>
+    <t>Heracles,2 2 1 5 3 1 5 6,(25)</t>
+  </si>
+  <si>
+    <t>Nijmegen,5 2 1 0 2 3 8 4 1,(26)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 5 7 3 4 3 3 3 4,(34)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,4 2 2 4 2 2 4 3 2,(25)</t>
+  </si>
+  <si>
+    <t>Twente,3 2 2 1 5 4 5 2 2,(26)</t>
+  </si>
+  <si>
+    <t>Utrecht,4 0 4 1 4 3 6 1 6,(29)</t>
+  </si>
+  <si>
+    <t>Vitesse,1 3 5 3 5 1 2 3 1,(24)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 5 4 3 4 3 1 2 4,(27)</t>
+  </si>
+  <si>
+    <t>Willem II,4 3 1 0 3 3 3 5 2,(24)</t>
+  </si>
+  <si>
+    <t>Zwolle,1 2 1 2 1 2 6 1 4,(20)</t>
+  </si>
+  <si>
+    <t>Ajax,5-0 1-1 5-0 0-2 9-0 0-5 3-0 0-1 0-2</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,1-0 1-3 0-3 3-2 3-1 5-0 1-3 5-1</t>
+  </si>
+  <si>
+    <t>Cambuur,1-2 4-1 2-0 5-2 9-0 2-1 0-4 1-3 1-0</t>
+  </si>
+  <si>
+    <t>Feyenoord,0-4 2-0 3-1 0-4 3-1 5-3 2-1 2-2</t>
+  </si>
+  <si>
+    <t>For Sittard,2-1 2-2 3-1 1-0 0-5 1-1 1-3 1-0</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,0-1 2-0 2-0 5-2 1-0 1-2 5-0 1-1 4-2</t>
+  </si>
+  <si>
+    <t>Groningen,1-2 0-0 5-2 1-1 2-1 0-1 3-0 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Heerenveen,0-1 3-2 1-3 1-1 1-0 3-1 2-3 0-1 0-2</t>
+  </si>
+  <si>
+    <t>Heracles,0-2 1-1 0-1 3-2 2-1 1-0 3-2 4-2</t>
+  </si>
+  <si>
+    <t>Nijmegen,5-0 2-0 0-1 0-0 1-1 0-3 5-3 1-3 0-1</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,0-2 4-1 5-2 0-3 0-4 1-2 2-1 2-1 3-1</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,4-0 1-1 2-0 3-1 1-1 1-1 0-4 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Twente,2-1 1-1 2-0 1-0 1-4 3-1 2-3 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Utrecht,4-0 0-0 3-1 1-0 2-2 0-3 5-1 0-1 5-1</t>
+  </si>
+  <si>
+    <t>Vitesse,0-1 0-3 5-0 1-2 1-4 0-1 1-1 2-1 0-1</t>
+  </si>
+  <si>
+    <t>Waalwijk,1-0 3-2 2-2 1-2 2-2 1-2 1-0 1-1 2-2</t>
+  </si>
+  <si>
+    <t>Willem II,0-4 0-3 1-0 0-0 2-1 1-2 2-1 3-2 1-1</t>
+  </si>
+  <si>
+    <t>Zwolle,0-1 2-0 1-0 0-2 1-0 1-1 5-1 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Ajax,5 0 5 2 9 5 3 -1 2,(30)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,-1 2 -3 -1 -2 5 2 4,(6)</t>
+  </si>
+  <si>
+    <t>Cambuur,-1 -3 2 3 -9 1 4 -2 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Feyenoord,4 2 -2 4 2 2 -1 0,(11)</t>
+  </si>
+  <si>
+    <t>For Sittard,1 0 -2 -1 -5 0 -2 1,(-8)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,-1 -2 2 -3 1 -1 -5 0 2,(-7)</t>
+  </si>
+  <si>
+    <t>Groningen,1 0 -3 0 -1 -1 -3 0 0,(-7)</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 1 -2 0 1 -2 -1 1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Heracles,-2 0 -1 1 -1 1 1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Nijmegen,-5 2 1 0 0 -3 -2 2 -1,(-6)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,2 3 3 3 -4 1 -1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,-4 0 -2 2 0 0 -4 -1 0,(-9)</t>
+  </si>
+  <si>
+    <t>Twente,-1 0 -2 1 3 2 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Utrecht,4 0 2 -1 0 3 4 1 -4,(9)</t>
+  </si>
+  <si>
+    <t>Vitesse,1 -3 -5 1 -3 1 0 1 1,(-6)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 -1 0 -1 0 -1 -1 0 0,(-3)</t>
+  </si>
+  <si>
+    <t>Willem II,-4 3 1 0 1 1 1 -1 0,(2)</t>
+  </si>
+  <si>
+    <t>Zwolle,-1 -2 -1 -2 -1 0 -4 -1 -2,(-14)</t>
+  </si>
+  <si>
+    <t>Ajax,Nijmegen(11) Twente(7) Vitesse(6) Zwolle(18) Cambuur(10) For Sittard(14) Groningen(15) Utrecht(3) Heerenveen(8)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,Waalwijk(17) Heerenveen(8) PSV Eindhoven(2) Heracles(13) Twente(7) Go Ahead Eagles(12) Cambuur(10) Utrecht(3)</t>
+  </si>
+  <si>
+    <t>Cambuur,Groningen(15) PSV Eindhoven(2) Twente(7) Go Ahead Eagles(12) Ajax(1) Heracles(13) Sparta Rotterdam(16) AZ Alkmaar(9) For Sittard(14)</t>
+  </si>
+  <si>
+    <t>Feyenoord,Willem II(4) Go Ahead Eagles(12) Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Nijmegen(11) Vitesse(6) Waalwijk(17)</t>
+  </si>
+  <si>
+    <t>For Sittard,Twente(7) Waalwijk(17) Sparta Rotterdam(16) Heerenveen(8) Ajax(1) Vitesse(6) Nijmegen(11) Cambuur(10)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,Heerenveen(8) Feyenoord(5) Sparta Rotterdam(16) Cambuur(10) Zwolle(18) PSV Eindhoven(2) AZ Alkmaar(9) Waalwijk(17) Heracles(13)</t>
+  </si>
+  <si>
+    <t>Groningen,Cambuur(10) Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Willem II(4) Vitesse(6) Ajax(1) Twente(7) Sparta Rotterdam(16)</t>
+  </si>
+  <si>
+    <t>Heerenveen,Go Ahead Eagles(12) Waalwijk(17) AZ Alkmaar(9) Groningen(15) For Sittard(14) Feyenoord(5) Twente(7) Zwolle(18) Ajax(1)</t>
+  </si>
+  <si>
+    <t>Heracles,PSV Eindhoven(2) Sparta Rotterdam(16) Nijmegen(11) AZ Alkmaar(9) Cambuur(10) Waalwijk(17) Willem II(4) Go Ahead Eagles(12)</t>
+  </si>
+  <si>
+    <t>Nijmegen,Ajax(1) Zwolle(18) Heracles(13) Willem II(4) Sparta Rotterdam(16) Utrecht(3) Feyenoord(5) For Sittard(14) Vitesse(6)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,Heracles(13) Cambuur(10) Groningen(15) AZ Alkmaar(9) Feyenoord(5) Go Ahead Eagles(12) Willem II(4) Sparta Rotterdam(16) Zwolle(18)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,Utrecht(3) Heracles(13) Go Ahead Eagles(12) For Sittard(14) Nijmegen(11) Zwolle(18) Cambuur(10) PSV Eindhoven(2) Groningen(15)</t>
+  </si>
+  <si>
+    <t>Twente,For Sittard(14) Ajax(1) Cambuur(10) Utrecht(3) Vitesse(6) AZ Alkmaar(9) Heerenveen(8) Groningen(15) Willem II(4)</t>
+  </si>
+  <si>
+    <t>Utrecht,Sparta Rotterdam(16) Groningen(15) Feyenoord(5) Twente(7) Waalwijk(17) Nijmegen(11) Zwolle(18) Ajax(1) AZ Alkmaar(9)</t>
+  </si>
+  <si>
+    <t>Vitesse,Zwolle(18) Willem II(4) Ajax(1) Waalwijk(17) Twente(7) Groningen(15) For Sittard(14) Feyenoord(5) Nijmegen(11)</t>
+  </si>
+  <si>
+    <t>Waalwijk,AZ Alkmaar(9) Heerenveen(8) For Sittard(14) Vitesse(6) Utrecht(3) Willem II(4) Heracles(13) Go Ahead Eagles(12) Feyenoord(5)</t>
+  </si>
+  <si>
+    <t>Willem II,Feyenoord(5) Vitesse(6) Zwolle(18) Nijmegen(11) Groningen(15) Waalwijk(17) PSV Eindhoven(2) Heracles(13) Twente(7)</t>
+  </si>
+  <si>
+    <t>Zwolle,Vitesse(6) Nijmegen(11) Willem II(4) Ajax(1) Go Ahead Eagles(12) Sparta Rotterdam(16) Utrecht(3) Heerenveen(8) PSV Eindhoven(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/N1.xlsx
+++ b/Divisions/N1.xlsx
@@ -816,382 +816,382 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Ajax,W D W W W W W L W</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,L W L L L W W W</t>
-  </si>
-  <si>
-    <t>Cambuur,L L W W L W W L L</t>
-  </si>
-  <si>
-    <t>Feyenoord,W W L W W W L D</t>
-  </si>
-  <si>
-    <t>For Sittard,W D L L L D L W</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,L L W L W L L D W</t>
-  </si>
-  <si>
-    <t>Groningen,W D L D L L L D D</t>
-  </si>
-  <si>
-    <t>Heerenveen,W W L D W L L W L</t>
-  </si>
-  <si>
-    <t>Heracles,L D L W L W W L</t>
-  </si>
-  <si>
-    <t>Nijmegen,L W W D D L L W L</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,W W W W L W L W W</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,L D L W D D L L D</t>
-  </si>
-  <si>
-    <t>Twente,L D L W W W W D D</t>
-  </si>
-  <si>
-    <t>Utrecht,W D W L D W W W L</t>
-  </si>
-  <si>
-    <t>Vitesse,W L L W L W D W W</t>
-  </si>
-  <si>
-    <t>Waalwijk,W L D L D L L D D</t>
-  </si>
-  <si>
-    <t>Willem II,L W W D W W W L D</t>
-  </si>
-  <si>
-    <t>Zwolle,L L L L L D L L L</t>
-  </si>
-  <si>
-    <t>Ajax,5 1 5 2 9 5 3 0 2,(32)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,0 3 0 2 1 5 3 5,(19)</t>
-  </si>
-  <si>
-    <t>Cambuur,1 1 2 5 0 2 4 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Feyenoord,4 2 1 4 3 5 1 2,(22)</t>
-  </si>
-  <si>
-    <t>For Sittard,2 2 1 0 0 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,0 0 2 2 1 1 0 1 4,(11)</t>
-  </si>
-  <si>
-    <t>Groningen,2 0 2 1 1 0 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 3 1 1 1 1 2 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Heracles,0 1 0 3 1 1 3 2,(11)</t>
-  </si>
-  <si>
-    <t>Nijmegen,0 2 1 0 1 0 3 3 0,(10)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 4 5 3 0 2 1 2 3,(22)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,0 1 0 3 1 1 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Twente,1 1 0 1 4 3 3 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Utrecht,4 0 3 0 2 3 5 1 1,(19)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 0 0 2 1 1 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 2 2 1 2 1 0 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Willem II,0 3 1 0 2 2 2 2 1,(13)</t>
-  </si>
-  <si>
-    <t>Zwolle,0 0 0 0 0 1 1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Ajax,0 1 0 0 0 0 0 1 0,(2)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,1 1 3 3 3 0 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Cambuur,2 4 0 2 9 1 0 3 1,(22)</t>
-  </si>
-  <si>
-    <t>Feyenoord,0 0 3 0 1 3 2 2,(11)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 2 3 1 5 1 3 0,(16)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,1 2 0 5 0 2 5 1 2,(18)</t>
-  </si>
-  <si>
-    <t>Groningen,1 0 5 1 2 1 3 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Heerenveen,0 2 3 1 0 3 3 0 2,(14)</t>
-  </si>
-  <si>
-    <t>Heracles,2 1 1 2 2 0 2 4,(14)</t>
-  </si>
-  <si>
-    <t>Nijmegen,5 0 0 0 1 3 5 1 1,(16)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,0 1 2 0 4 1 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,4 1 2 1 1 1 4 2 1,(17)</t>
-  </si>
-  <si>
-    <t>Twente,2 1 2 0 1 1 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Utrecht,0 0 1 1 2 0 1 0 5,(10)</t>
-  </si>
-  <si>
-    <t>Vitesse,0 3 5 1 4 0 1 1 0,(15)</t>
-  </si>
-  <si>
-    <t>Waalwijk,0 3 2 2 2 2 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Willem II,4 0 0 0 1 1 1 3 1,(11)</t>
-  </si>
-  <si>
-    <t>Zwolle,1 2 1 2 1 1 5 1 3,(17)</t>
-  </si>
-  <si>
-    <t>Ajax,5 2 5 2 9 5 3 1 2,(34)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,1 4 3 5 4 5 4 6,(32)</t>
-  </si>
-  <si>
-    <t>Cambuur,3 5 2 7 9 3 4 4 1,(38)</t>
-  </si>
-  <si>
-    <t>Feyenoord,4 2 4 4 4 8 3 4,(33)</t>
-  </si>
-  <si>
-    <t>For Sittard,3 4 4 1 5 2 4 1,(24)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,1 2 2 7 1 3 5 2 6,(29)</t>
-  </si>
-  <si>
-    <t>Groningen,3 0 7 2 3 1 3 2 2,(23)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 5 4 2 1 4 5 1 2,(25)</t>
-  </si>
-  <si>
-    <t>Heracles,2 2 1 5 3 1 5 6,(25)</t>
-  </si>
-  <si>
-    <t>Nijmegen,5 2 1 0 2 3 8 4 1,(26)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 5 7 3 4 3 3 3 4,(34)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,4 2 2 4 2 2 4 3 2,(25)</t>
-  </si>
-  <si>
-    <t>Twente,3 2 2 1 5 4 5 2 2,(26)</t>
-  </si>
-  <si>
-    <t>Utrecht,4 0 4 1 4 3 6 1 6,(29)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 3 5 3 5 1 2 3 1,(24)</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 5 4 3 4 3 1 2 4,(27)</t>
-  </si>
-  <si>
-    <t>Willem II,4 3 1 0 3 3 3 5 2,(24)</t>
-  </si>
-  <si>
-    <t>Zwolle,1 2 1 2 1 2 6 1 4,(20)</t>
-  </si>
-  <si>
-    <t>Ajax,5-0 1-1 5-0 0-2 9-0 0-5 3-0 0-1 0-2</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,1-0 1-3 0-3 3-2 3-1 5-0 1-3 5-1</t>
-  </si>
-  <si>
-    <t>Cambuur,1-2 4-1 2-0 5-2 9-0 2-1 0-4 1-3 1-0</t>
-  </si>
-  <si>
-    <t>Feyenoord,0-4 2-0 3-1 0-4 3-1 5-3 2-1 2-2</t>
-  </si>
-  <si>
-    <t>For Sittard,2-1 2-2 3-1 1-0 0-5 1-1 1-3 1-0</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,0-1 2-0 2-0 5-2 1-0 1-2 5-0 1-1 4-2</t>
-  </si>
-  <si>
-    <t>Groningen,1-2 0-0 5-2 1-1 2-1 0-1 3-0 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Heerenveen,0-1 3-2 1-3 1-1 1-0 3-1 2-3 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Heracles,0-2 1-1 0-1 3-2 2-1 1-0 3-2 4-2</t>
-  </si>
-  <si>
-    <t>Nijmegen,5-0 2-0 0-1 0-0 1-1 0-3 5-3 1-3 0-1</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,0-2 4-1 5-2 0-3 0-4 1-2 2-1 2-1 3-1</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,4-0 1-1 2-0 3-1 1-1 1-1 0-4 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Twente,2-1 1-1 2-0 1-0 1-4 3-1 2-3 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Utrecht,4-0 0-0 3-1 1-0 2-2 0-3 5-1 0-1 5-1</t>
-  </si>
-  <si>
-    <t>Vitesse,0-1 0-3 5-0 1-2 1-4 0-1 1-1 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Waalwijk,1-0 3-2 2-2 1-2 2-2 1-2 1-0 1-1 2-2</t>
-  </si>
-  <si>
-    <t>Willem II,0-4 0-3 1-0 0-0 2-1 1-2 2-1 3-2 1-1</t>
-  </si>
-  <si>
-    <t>Zwolle,0-1 2-0 1-0 0-2 1-0 1-1 5-1 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Ajax,5 0 5 2 9 5 3 -1 2,(30)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,-1 2 -3 -1 -2 5 2 4,(6)</t>
-  </si>
-  <si>
-    <t>Cambuur,-1 -3 2 3 -9 1 4 -2 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Feyenoord,4 2 -2 4 2 2 -1 0,(11)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 0 -2 -1 -5 0 -2 1,(-8)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,-1 -2 2 -3 1 -1 -5 0 2,(-7)</t>
-  </si>
-  <si>
-    <t>Groningen,1 0 -3 0 -1 -1 -3 0 0,(-7)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 1 -2 0 1 -2 -1 1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Heracles,-2 0 -1 1 -1 1 1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Nijmegen,-5 2 1 0 0 -3 -2 2 -1,(-6)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 3 3 3 -4 1 -1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,-4 0 -2 2 0 0 -4 -1 0,(-9)</t>
-  </si>
-  <si>
-    <t>Twente,-1 0 -2 1 3 2 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Utrecht,4 0 2 -1 0 3 4 1 -4,(9)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 -3 -5 1 -3 1 0 1 1,(-6)</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 -1 0 -1 0 -1 -1 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Willem II,-4 3 1 0 1 1 1 -1 0,(2)</t>
-  </si>
-  <si>
-    <t>Zwolle,-1 -2 -1 -2 -1 0 -4 -1 -2,(-14)</t>
-  </si>
-  <si>
-    <t>Ajax,Nijmegen(11) Twente(7) Vitesse(6) Zwolle(18) Cambuur(10) For Sittard(14) Groningen(15) Utrecht(3) Heerenveen(8)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,Waalwijk(17) Heerenveen(8) PSV Eindhoven(2) Heracles(13) Twente(7) Go Ahead Eagles(12) Cambuur(10) Utrecht(3)</t>
-  </si>
-  <si>
-    <t>Cambuur,Groningen(15) PSV Eindhoven(2) Twente(7) Go Ahead Eagles(12) Ajax(1) Heracles(13) Sparta Rotterdam(16) AZ Alkmaar(9) For Sittard(14)</t>
-  </si>
-  <si>
-    <t>Feyenoord,Willem II(4) Go Ahead Eagles(12) Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Nijmegen(11) Vitesse(6) Waalwijk(17)</t>
-  </si>
-  <si>
-    <t>For Sittard,Twente(7) Waalwijk(17) Sparta Rotterdam(16) Heerenveen(8) Ajax(1) Vitesse(6) Nijmegen(11) Cambuur(10)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,Heerenveen(8) Feyenoord(5) Sparta Rotterdam(16) Cambuur(10) Zwolle(18) PSV Eindhoven(2) AZ Alkmaar(9) Waalwijk(17) Heracles(13)</t>
-  </si>
-  <si>
-    <t>Groningen,Cambuur(10) Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Willem II(4) Vitesse(6) Ajax(1) Twente(7) Sparta Rotterdam(16)</t>
-  </si>
-  <si>
-    <t>Heerenveen,Go Ahead Eagles(12) Waalwijk(17) AZ Alkmaar(9) Groningen(15) For Sittard(14) Feyenoord(5) Twente(7) Zwolle(18) Ajax(1)</t>
-  </si>
-  <si>
-    <t>Heracles,PSV Eindhoven(2) Sparta Rotterdam(16) Nijmegen(11) AZ Alkmaar(9) Cambuur(10) Waalwijk(17) Willem II(4) Go Ahead Eagles(12)</t>
-  </si>
-  <si>
-    <t>Nijmegen,Ajax(1) Zwolle(18) Heracles(13) Willem II(4) Sparta Rotterdam(16) Utrecht(3) Feyenoord(5) For Sittard(14) Vitesse(6)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,Heracles(13) Cambuur(10) Groningen(15) AZ Alkmaar(9) Feyenoord(5) Go Ahead Eagles(12) Willem II(4) Sparta Rotterdam(16) Zwolle(18)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,Utrecht(3) Heracles(13) Go Ahead Eagles(12) For Sittard(14) Nijmegen(11) Zwolle(18) Cambuur(10) PSV Eindhoven(2) Groningen(15)</t>
-  </si>
-  <si>
-    <t>Twente,For Sittard(14) Ajax(1) Cambuur(10) Utrecht(3) Vitesse(6) AZ Alkmaar(9) Heerenveen(8) Groningen(15) Willem II(4)</t>
-  </si>
-  <si>
-    <t>Utrecht,Sparta Rotterdam(16) Groningen(15) Feyenoord(5) Twente(7) Waalwijk(17) Nijmegen(11) Zwolle(18) Ajax(1) AZ Alkmaar(9)</t>
-  </si>
-  <si>
-    <t>Vitesse,Zwolle(18) Willem II(4) Ajax(1) Waalwijk(17) Twente(7) Groningen(15) For Sittard(14) Feyenoord(5) Nijmegen(11)</t>
-  </si>
-  <si>
-    <t>Waalwijk,AZ Alkmaar(9) Heerenveen(8) For Sittard(14) Vitesse(6) Utrecht(3) Willem II(4) Heracles(13) Go Ahead Eagles(12) Feyenoord(5)</t>
-  </si>
-  <si>
-    <t>Willem II,Feyenoord(5) Vitesse(6) Zwolle(18) Nijmegen(11) Groningen(15) Waalwijk(17) PSV Eindhoven(2) Heracles(13) Twente(7)</t>
-  </si>
-  <si>
-    <t>Zwolle,Vitesse(6) Nijmegen(11) Willem II(4) Ajax(1) Go Ahead Eagles(12) Sparta Rotterdam(16) Utrecht(3) Heerenveen(8) PSV Eindhoven(2)</t>
+    <t>Ajax,W W W W L W</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,L L L W W W</t>
+  </si>
+  <si>
+    <t>Cambuur,W L W W L L</t>
+  </si>
+  <si>
+    <t>Feyenoord,L W W W L D</t>
+  </si>
+  <si>
+    <t>For Sittard,L L L D L W</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,L W L L D W</t>
+  </si>
+  <si>
+    <t>Groningen,D L L L D D</t>
+  </si>
+  <si>
+    <t>Heerenveen,D W L L W L</t>
+  </si>
+  <si>
+    <t>Heracles,L W L W W L</t>
+  </si>
+  <si>
+    <t>Nijmegen,D D L L W L</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,W L W L W W</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,W D D L L D</t>
+  </si>
+  <si>
+    <t>Twente,W W W W D D</t>
+  </si>
+  <si>
+    <t>Utrecht,L D W W W L</t>
+  </si>
+  <si>
+    <t>Vitesse,W L W D W W</t>
+  </si>
+  <si>
+    <t>Waalwijk,L D L L D D</t>
+  </si>
+  <si>
+    <t>Willem II,D W W W L D</t>
+  </si>
+  <si>
+    <t>Zwolle,L L D L L L</t>
+  </si>
+  <si>
+    <t>Ajax,2 9 5 3 0 2,(21)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,0 2 1 5 3 5,(16)</t>
+  </si>
+  <si>
+    <t>Cambuur,5 0 2 4 1 0,(12)</t>
+  </si>
+  <si>
+    <t>Feyenoord,1 4 3 5 1 2,(16)</t>
+  </si>
+  <si>
+    <t>For Sittard,1 0 0 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,2 1 1 0 1 4,(9)</t>
+  </si>
+  <si>
+    <t>Groningen,1 1 0 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 1 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Heracles,0 3 1 1 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Nijmegen,0 1 0 3 3 0,(7)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,3 0 2 1 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,3 1 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Twente,1 4 3 3 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Utrecht,0 2 3 5 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Vitesse,2 1 1 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Waalwijk,1 2 1 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Willem II,0 2 2 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Zwolle,0 0 1 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Ajax,0 0 0 0 1 0,(1)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,3 3 3 0 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Cambuur,2 9 1 0 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Feyenoord,3 0 1 3 2 2,(11)</t>
+  </si>
+  <si>
+    <t>For Sittard,3 1 5 1 3 0,(13)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,5 0 2 5 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Groningen,1 2 1 3 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Heerenveen,1 0 3 3 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Heracles,1 2 2 0 2 4,(11)</t>
+  </si>
+  <si>
+    <t>Nijmegen,0 1 3 5 1 1,(11)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,0 4 1 2 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,1 1 1 4 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Twente,0 1 1 2 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Utrecht,1 2 0 1 0 5,(9)</t>
+  </si>
+  <si>
+    <t>Vitesse,1 4 0 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Waalwijk,2 2 2 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Willem II,0 1 1 1 3 1,(7)</t>
+  </si>
+  <si>
+    <t>Zwolle,2 1 1 5 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Ajax,2 9 5 3 1 2,(22)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,3 5 4 5 4 6,(27)</t>
+  </si>
+  <si>
+    <t>Cambuur,7 9 3 4 4 1,(28)</t>
+  </si>
+  <si>
+    <t>Feyenoord,4 4 4 8 3 4,(27)</t>
+  </si>
+  <si>
+    <t>For Sittard,4 1 5 2 4 1,(17)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,7 1 3 5 2 6,(24)</t>
+  </si>
+  <si>
+    <t>Groningen,2 3 1 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Heerenveen,2 1 4 5 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Heracles,1 5 3 1 5 6,(21)</t>
+  </si>
+  <si>
+    <t>Nijmegen,0 2 3 8 4 1,(18)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,3 4 3 3 3 4,(20)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,4 2 2 4 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Twente,1 5 4 5 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Utrecht,1 4 3 6 1 6,(21)</t>
+  </si>
+  <si>
+    <t>Vitesse,3 5 1 2 3 1,(15)</t>
+  </si>
+  <si>
+    <t>Waalwijk,3 4 3 1 2 4,(17)</t>
+  </si>
+  <si>
+    <t>Willem II,0 3 3 3 5 2,(16)</t>
+  </si>
+  <si>
+    <t>Zwolle,2 1 2 6 1 4,(16)</t>
+  </si>
+  <si>
+    <t>Ajax,0-2 9-0 0-5 3-0 0-1 0-2</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,0-3 3-2 3-1 5-0 1-3 5-1</t>
+  </si>
+  <si>
+    <t>Cambuur,5-2 9-0 2-1 0-4 1-3 1-0</t>
+  </si>
+  <si>
+    <t>Feyenoord,3-1 0-4 3-1 5-3 2-1 2-2</t>
+  </si>
+  <si>
+    <t>For Sittard,3-1 1-0 0-5 1-1 1-3 1-0</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,5-2 1-0 1-2 5-0 1-1 4-2</t>
+  </si>
+  <si>
+    <t>Groningen,1-1 2-1 0-1 3-0 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Heerenveen,1-1 1-0 3-1 2-3 0-1 0-2</t>
+  </si>
+  <si>
+    <t>Heracles,0-1 3-2 2-1 1-0 3-2 4-2</t>
+  </si>
+  <si>
+    <t>Nijmegen,0-0 1-1 0-3 5-3 1-3 0-1</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,0-3 0-4 1-2 2-1 2-1 3-1</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,3-1 1-1 1-1 0-4 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Twente,1-0 1-4 3-1 2-3 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Utrecht,1-0 2-2 0-3 5-1 0-1 5-1</t>
+  </si>
+  <si>
+    <t>Vitesse,1-2 1-4 0-1 1-1 2-1 0-1</t>
+  </si>
+  <si>
+    <t>Waalwijk,1-2 2-2 1-2 1-0 1-1 2-2</t>
+  </si>
+  <si>
+    <t>Willem II,0-0 2-1 1-2 2-1 3-2 1-1</t>
+  </si>
+  <si>
+    <t>Zwolle,0-2 1-0 1-1 5-1 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Ajax,2 9 5 3 -1 2,(20)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,-3 -1 -2 5 2 4,(5)</t>
+  </si>
+  <si>
+    <t>Cambuur,3 -9 1 4 -2 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Feyenoord,-2 4 2 2 -1 0,(5)</t>
+  </si>
+  <si>
+    <t>For Sittard,-2 -1 -5 0 -2 1,(-9)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,-3 1 -1 -5 0 2,(-6)</t>
+  </si>
+  <si>
+    <t>Groningen,0 -1 -1 -3 0 0,(-5)</t>
+  </si>
+  <si>
+    <t>Heerenveen,0 1 -2 -1 1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Heracles,-1 1 -1 1 1 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Nijmegen,0 0 -3 -2 2 -1,(-4)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,3 -4 1 -1 1 2,(2)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,2 0 0 -4 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Twente,1 3 2 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Utrecht,-1 0 3 4 1 -4,(3)</t>
+  </si>
+  <si>
+    <t>Vitesse,1 -3 1 0 1 1,(1)</t>
+  </si>
+  <si>
+    <t>Waalwijk,-1 0 -1 -1 0 0,(-3)</t>
+  </si>
+  <si>
+    <t>Willem II,0 1 1 1 -1 0,(2)</t>
+  </si>
+  <si>
+    <t>Zwolle,-2 -1 0 -4 -1 -2,(-10)</t>
+  </si>
+  <si>
+    <t>Ajax,Zwolle(18) Cambuur(10) For Sittard(14) Groningen(15) Utrecht(3) Heerenveen(8)</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar,PSV Eindhoven(2) Heracles(13) Twente(7) Go Ahead Eagles(12) Cambuur(10) Utrecht(3)</t>
+  </si>
+  <si>
+    <t>Cambuur,Go Ahead Eagles(12) Ajax(1) Heracles(13) Sparta Rotterdam(16) AZ Alkmaar(9) For Sittard(14)</t>
+  </si>
+  <si>
+    <t>Feyenoord,Utrecht(3) PSV Eindhoven(2) Heerenveen(8) Nijmegen(11) Vitesse(6) Waalwijk(17)</t>
+  </si>
+  <si>
+    <t>For Sittard,Sparta Rotterdam(16) Heerenveen(8) Ajax(1) Vitesse(6) Nijmegen(11) Cambuur(10)</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles,Cambuur(10) Zwolle(18) PSV Eindhoven(2) AZ Alkmaar(9) Waalwijk(17) Heracles(13)</t>
+  </si>
+  <si>
+    <t>Groningen,Heerenveen(8) Willem II(4) Vitesse(6) Ajax(1) Twente(7) Sparta Rotterdam(16)</t>
+  </si>
+  <si>
+    <t>Heerenveen,Groningen(15) For Sittard(14) Feyenoord(5) Twente(7) Zwolle(18) Ajax(1)</t>
+  </si>
+  <si>
+    <t>Heracles,Nijmegen(11) AZ Alkmaar(9) Cambuur(10) Waalwijk(17) Willem II(4) Go Ahead Eagles(12)</t>
+  </si>
+  <si>
+    <t>Nijmegen,Willem II(4) Sparta Rotterdam(16) Utrecht(3) Feyenoord(5) For Sittard(14) Vitesse(6)</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven,AZ Alkmaar(9) Feyenoord(5) Go Ahead Eagles(12) Willem II(4) Sparta Rotterdam(16) Zwolle(18)</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam,For Sittard(14) Nijmegen(11) Zwolle(18) Cambuur(10) PSV Eindhoven(2) Groningen(15)</t>
+  </si>
+  <si>
+    <t>Twente,Utrecht(3) Vitesse(6) AZ Alkmaar(9) Heerenveen(8) Groningen(15) Willem II(4)</t>
+  </si>
+  <si>
+    <t>Utrecht,Twente(7) Waalwijk(17) Nijmegen(11) Zwolle(18) Ajax(1) AZ Alkmaar(9)</t>
+  </si>
+  <si>
+    <t>Vitesse,Waalwijk(17) Twente(7) Groningen(15) For Sittard(14) Feyenoord(5) Nijmegen(11)</t>
+  </si>
+  <si>
+    <t>Waalwijk,Vitesse(6) Utrecht(3) Willem II(4) Heracles(13) Go Ahead Eagles(12) Feyenoord(5)</t>
+  </si>
+  <si>
+    <t>Willem II,Nijmegen(11) Groningen(15) Waalwijk(17) PSV Eindhoven(2) Heracles(13) Twente(7)</t>
+  </si>
+  <si>
+    <t>Zwolle,Ajax(1) Go Ahead Eagles(12) Sparta Rotterdam(16) Utrecht(3) Heerenveen(8) PSV Eindhoven(2)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/N1.xlsx
+++ b/Divisions/N1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Cards" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7018" uniqueCount="473">
   <si>
     <t>Team</t>
   </si>
@@ -1442,405 +1441,6 @@
   </si>
   <si>
     <t>29.76%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Ajax,W W W W W W</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,W L W W D L</t>
-  </si>
-  <si>
-    <t>Cambuur,W L L L D D</t>
-  </si>
-  <si>
-    <t>Feyenoord,W D W W D L</t>
-  </si>
-  <si>
-    <t>For Sittard,W L W W L L</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,W D W W L L</t>
-  </si>
-  <si>
-    <t>Groningen,W W L L L L</t>
-  </si>
-  <si>
-    <t>Heerenveen,L L W W D W</t>
-  </si>
-  <si>
-    <t>Heracles,W W D L D L</t>
-  </si>
-  <si>
-    <t>Nijmegen,L D L L W L</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,W W W W W W</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,W L W D D W</t>
-  </si>
-  <si>
-    <t>Twente,W W D W L W</t>
-  </si>
-  <si>
-    <t>Utrecht,D L L D W D</t>
-  </si>
-  <si>
-    <t>Vitesse,W L W L L D</t>
-  </si>
-  <si>
-    <t>Waalwijk,L D D L W W</t>
-  </si>
-  <si>
-    <t>Willem II,L D D W W W</t>
-  </si>
-  <si>
-    <t>Zwolle,D L L W D L</t>
-  </si>
-  <si>
-    <t>Ajax,5 3 3 2 3 5,(21)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,2 0 3 2 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Cambuur,2 2 1 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Feyenoord,3 1 2 2 2 1,(11)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 0 3 1 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,2 1 3 4 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Groningen,1 4 1 0 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Heerenveen,0 1 2 3 3 3,(12)</t>
-  </si>
-  <si>
-    <t>Heracles,1 2 0 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Nijmegen,1 0 0 0 1 0,(2)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,3 3 5 2 4 3,(20)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,1 1 1 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Twente,1 1 3 2 1 3,(11)</t>
-  </si>
-  <si>
-    <t>Utrecht,1 0 1 1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Vitesse,4 1 1 0 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Waalwijk,1 0 1 0 3 2,(7)</t>
-  </si>
-  <si>
-    <t>Willem II,0 0 2 1 2 3,(8)</t>
-  </si>
-  <si>
-    <t>Zwolle,1 1 0 2 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Ajax,0 2 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,1 1 1 1 2 3,(9)</t>
-  </si>
-  <si>
-    <t>Cambuur,1 3 2 2 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Feyenoord,1 1 0 1 2 2,(7)</t>
-  </si>
-  <si>
-    <t>For Sittard,0 2 0 0 3 2,(7)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,1 1 0 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Groningen,0 3 3 1 2 3,(12)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 2 0 1 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Heracles,0 0 0 4 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Nijmegen,3 0 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,1 1 0 0 2 2,(6)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,0 2 0 1 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Twente,0 0 3 0 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Utrecht,1 1 3 1 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Vitesse,1 2 0 1 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Waalwijk,2 0 1 2 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Willem II,1 0 2 0 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Zwolle,1 2 1 1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Ajax,5 5 5 3 3 5,(26)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,3 1 4 3 4 4,(19)</t>
-  </si>
-  <si>
-    <t>Cambuur,3 5 3 3 2 2,(18)</t>
-  </si>
-  <si>
-    <t>Feyenoord,4 2 2 3 4 3,(18)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 2 3 1 4 3,(14)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,3 2 3 4 3 1,(16)</t>
-  </si>
-  <si>
-    <t>Groningen,1 7 4 1 3 5,(21)</t>
-  </si>
-  <si>
-    <t>Heerenveen,1 3 2 4 6 4,(20)</t>
-  </si>
-  <si>
-    <t>Heracles,1 2 0 5 2 4,(14)</t>
-  </si>
-  <si>
-    <t>Nijmegen,4 0 2 1 1 1,(9)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,4 4 5 2 6 5,(26)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,1 3 1 2 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Twente,1 1 6 2 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Utrecht,2 1 4 2 1 4,(14)</t>
-  </si>
-  <si>
-    <t>Vitesse,5 3 1 1 3 4,(17)</t>
-  </si>
-  <si>
-    <t>Waalwijk,3 0 2 2 4 2,(13)</t>
-  </si>
-  <si>
-    <t>Willem II,1 0 4 1 2 3,(11)</t>
-  </si>
-  <si>
-    <t>Zwolle,2 3 1 3 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Ajax,5-0 3-2 3-2 2-1 3-0 5-0</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,2-1 0-1 3-1 2-1 2-2 1-3</t>
-  </si>
-  <si>
-    <t>Cambuur,2-1 2-3 1-2 1-2 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Feyenoord,3-1 1-1 2-0 2-1 2-2 1-2</t>
-  </si>
-  <si>
-    <t>For Sittard,1-0 0-2 3-0 1-0 1-3 1-2</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,2-1 1-1 3-0 4-0 1-2 0-1</t>
-  </si>
-  <si>
-    <t>Groningen,1-0 4-3 1-3 0-1 1-2 2-3</t>
-  </si>
-  <si>
-    <t>Heerenveen,0-1 1-2 2-0 3-1 3-3 3-1</t>
-  </si>
-  <si>
-    <t>Heracles,1-0 2-0 0-0 1-4 1-1 1-3</t>
-  </si>
-  <si>
-    <t>Nijmegen,1-3 0-0 0-2 0-1 1-0 0-1</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,3-1 3-1 5-0 2-0 4-2 3-2</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,1-0 1-2 1-0 1-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Twente,1-0 1-0 3-3 2-0 1-2 3-0</t>
-  </si>
-  <si>
-    <t>Utrecht,1-1 0-1 1-3 1-1 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Vitesse,4-1 1-2 1-0 0-1 1-2 2-2</t>
-  </si>
-  <si>
-    <t>Waalwijk,1-2 0-0 1-1 0-2 3-1 2-0</t>
-  </si>
-  <si>
-    <t>Willem II,0-1 0-0 2-2 1-0 2-0 3-0</t>
-  </si>
-  <si>
-    <t>Zwolle,1-1 1-2 0-1 2-1 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Ajax,5 1 1 1 3 5,(16)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,1 -1 2 1 0 -2,(1)</t>
-  </si>
-  <si>
-    <t>Cambuur,1 -1 -1 -1 0 0,(-2)</t>
-  </si>
-  <si>
-    <t>Feyenoord,2 0 2 1 0 -1,(4)</t>
-  </si>
-  <si>
-    <t>For Sittard,1 -2 3 1 -2 -1,(0)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,1 0 3 4 -1 -1,(6)</t>
-  </si>
-  <si>
-    <t>Groningen,1 1 -2 -1 -1 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Heerenveen,-1 -1 2 2 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Heracles,1 2 0 -3 0 -2,(-2)</t>
-  </si>
-  <si>
-    <t>Nijmegen,-2 0 -2 -1 1 -1,(-5)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,2 2 5 2 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,1 -1 1 0 0 2,(3)</t>
-  </si>
-  <si>
-    <t>Twente,1 1 0 2 -1 3,(6)</t>
-  </si>
-  <si>
-    <t>Utrecht,0 -1 -2 0 1 0,(-2)</t>
-  </si>
-  <si>
-    <t>Vitesse,3 -1 1 -1 -1 0,(1)</t>
-  </si>
-  <si>
-    <t>Waalwijk,-1 0 0 -2 2 2,(1)</t>
-  </si>
-  <si>
-    <t>Willem II,-1 0 0 1 2 3,(5)</t>
-  </si>
-  <si>
-    <t>Zwolle,0 -1 -1 1 0 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Ajax,Twente(4) Waalwijk(11) Feyenoord(3) Sparta Rotterdam(15) Zwolle(18) Heerenveen(8)</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar,Feyenoord(3) Twente(4) Vitesse(6) Heerenveen(8) Ajax(1) Waalwijk(11)</t>
-  </si>
-  <si>
-    <t>Cambuur,For Sittard(14) Ajax(1) Nijmegen(10) PSV Eindhoven(2) Waalwijk(11) Willem II(17)</t>
-  </si>
-  <si>
-    <t>Feyenoord,Cambuur(9) Groningen(13) Willem II(17) Utrecht(7) PSV Eindhoven(2) Twente(4)</t>
-  </si>
-  <si>
-    <t>For Sittard,Willem II(17) Heracles(16) Sparta Rotterdam(15) Go Ahead Eagles(12) Feyenoord(3) Vitesse(6)</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles,Ajax(1) Utrecht(7) Cambuur(9) Willem II(17) Vitesse(6) Feyenoord(3)</t>
-  </si>
-  <si>
-    <t>Groningen,Willem II(17) Nijmegen(10) Ajax(1) Heracles(16) Sparta Rotterdam(15) Cambuur(9)</t>
-  </si>
-  <si>
-    <t>Heerenveen,Nijmegen(10) Utrecht(7) Heracles(16) Groningen(13) Cambuur(9) Go Ahead Eagles(12)</t>
-  </si>
-  <si>
-    <t>Heracles,Utrecht(7) Zwolle(18) Vitesse(6) Feyenoord(3) Twente(4) Sparta Rotterdam(15)</t>
-  </si>
-  <si>
-    <t>Nijmegen,AZ Alkmaar(5) Sparta Rotterdam(15) Twente(4) Ajax(1) Go Ahead Eagles(12) For Sittard(14)</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven,Heerenveen(8) Heracles(16) For Sittard(14) Waalwijk(11) Willem II(17) Nijmegen(10)</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam,Willem II(17) PSV Eindhoven(2) Go Ahead Eagles(12) Heerenveen(8) AZ Alkmaar(5) Zwolle(18)</t>
-  </si>
-  <si>
-    <t>Twente,Cambuur(9) Zwolle(18) PSV Eindhoven(2) Sparta Rotterdam(15) For Sittard(14) Groningen(13)</t>
-  </si>
-  <si>
-    <t>Utrecht,Vitesse(6) PSV Eindhoven(2) Groningen(13) For Sittard(14) Nijmegen(10) AZ Alkmaar(5)</t>
-  </si>
-  <si>
-    <t>Vitesse,Nijmegen(10) Waalwijk(11) Cambuur(9) Sparta Rotterdam(15) Heerenveen(8) Ajax(1)</t>
-  </si>
-  <si>
-    <t>Waalwijk,Twente(4) Heerenveen(8) Utrecht(7) Zwolle(18) Groningen(13) Heracles(16)</t>
-  </si>
-  <si>
-    <t>Willem II,Ajax(1) Heerenveen(8) AZ Alkmaar(5) Vitesse(6) Heracles(16) Utrecht(7)</t>
-  </si>
-  <si>
-    <t>Zwolle,Groningen(13) Feyenoord(3) Go Ahead Eagles(12) AZ Alkmaar(5) Utrecht(7) PSV Eindhoven(2)</t>
   </si>
 </sst>
 </file>
@@ -4880,511 +4480,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F2" t="s">
-        <v>552</v>
-      </c>
-      <c r="G2" t="s">
-        <v>570</v>
-      </c>
-      <c r="H2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D4" t="s">
-        <v>518</v>
-      </c>
-      <c r="E4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G5" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" t="s">
-        <v>556</v>
-      </c>
-      <c r="G6" t="s">
-        <v>574</v>
-      </c>
-      <c r="H6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G7" t="s">
-        <v>575</v>
-      </c>
-      <c r="H7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F8" t="s">
-        <v>558</v>
-      </c>
-      <c r="G8" t="s">
-        <v>576</v>
-      </c>
-      <c r="H8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F9" t="s">
-        <v>559</v>
-      </c>
-      <c r="G9" t="s">
-        <v>577</v>
-      </c>
-      <c r="H9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D10" t="s">
-        <v>524</v>
-      </c>
-      <c r="E10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F10" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" t="s">
-        <v>578</v>
-      </c>
-      <c r="H10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" t="s">
-        <v>507</v>
-      </c>
-      <c r="D11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E11" t="s">
-        <v>543</v>
-      </c>
-      <c r="F11" t="s">
-        <v>561</v>
-      </c>
-      <c r="G11" t="s">
-        <v>579</v>
-      </c>
-      <c r="H11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>490</v>
-      </c>
-      <c r="C12" t="s">
-        <v>508</v>
-      </c>
-      <c r="D12" t="s">
-        <v>526</v>
-      </c>
-      <c r="E12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F12" t="s">
-        <v>562</v>
-      </c>
-      <c r="G12" t="s">
-        <v>580</v>
-      </c>
-      <c r="H12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C13" t="s">
-        <v>509</v>
-      </c>
-      <c r="D13" t="s">
-        <v>527</v>
-      </c>
-      <c r="E13" t="s">
-        <v>545</v>
-      </c>
-      <c r="F13" t="s">
-        <v>563</v>
-      </c>
-      <c r="G13" t="s">
-        <v>581</v>
-      </c>
-      <c r="H13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" t="s">
-        <v>510</v>
-      </c>
-      <c r="D14" t="s">
-        <v>528</v>
-      </c>
-      <c r="E14" t="s">
-        <v>546</v>
-      </c>
-      <c r="F14" t="s">
-        <v>564</v>
-      </c>
-      <c r="G14" t="s">
-        <v>582</v>
-      </c>
-      <c r="H14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>493</v>
-      </c>
-      <c r="C15" t="s">
-        <v>511</v>
-      </c>
-      <c r="D15" t="s">
-        <v>529</v>
-      </c>
-      <c r="E15" t="s">
-        <v>547</v>
-      </c>
-      <c r="F15" t="s">
-        <v>565</v>
-      </c>
-      <c r="G15" t="s">
-        <v>583</v>
-      </c>
-      <c r="H15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D16" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" t="s">
-        <v>548</v>
-      </c>
-      <c r="F16" t="s">
-        <v>566</v>
-      </c>
-      <c r="G16" t="s">
-        <v>584</v>
-      </c>
-      <c r="H16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C17" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" t="s">
-        <v>531</v>
-      </c>
-      <c r="E17" t="s">
-        <v>549</v>
-      </c>
-      <c r="F17" t="s">
-        <v>567</v>
-      </c>
-      <c r="G17" t="s">
-        <v>585</v>
-      </c>
-      <c r="H17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" t="s">
-        <v>514</v>
-      </c>
-      <c r="D18" t="s">
-        <v>532</v>
-      </c>
-      <c r="E18" t="s">
-        <v>550</v>
-      </c>
-      <c r="F18" t="s">
-        <v>568</v>
-      </c>
-      <c r="G18" t="s">
-        <v>586</v>
-      </c>
-      <c r="H18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>497</v>
-      </c>
-      <c r="C19" t="s">
-        <v>515</v>
-      </c>
-      <c r="D19" t="s">
-        <v>533</v>
-      </c>
-      <c r="E19" t="s">
-        <v>551</v>
-      </c>
-      <c r="F19" t="s">
-        <v>569</v>
-      </c>
-      <c r="G19" t="s">
-        <v>587</v>
-      </c>
-      <c r="H19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
